--- a/Data/MultigenerationalCC.xlsx
+++ b/Data/MultigenerationalCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhxYJg077EkOtyRnyPx1BYB5XtEbw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -58,7 +58,7 @@
     <t>Please describe the caretaking you do for members of your household other than your children.</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
